--- a/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0914D498-A76F-4EA1-8292-E009E92A4B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA5219A-CA8F-4140-942C-0B3BA23B6F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities" sheetId="23" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="455">
   <si>
     <t>TechName</t>
   </si>
@@ -1859,6 +1859,9 @@
   </si>
   <si>
     <t>PRC_ACTFLO~2050</t>
+  </si>
+  <si>
+    <t>ENV</t>
   </si>
 </sst>
 </file>
@@ -13737,8 +13740,8 @@
   </sheetPr>
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14074,7 +14077,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>454</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>412</v>
@@ -14096,7 +14099,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>119</v>
+        <v>454</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>413</v>
@@ -14380,8 +14383,8 @@
   </sheetPr>
   <dimension ref="A2:BE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD33"/>
+    <sheetView topLeftCell="J1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA5219A-CA8F-4140-942C-0B3BA23B6F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6712408-D073-4F6B-AB87-5B3788BF5FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities" sheetId="23" r:id="rId1"/>
@@ -13740,7 +13740,7 @@
   </sheetPr>
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -14383,8 +14383,8 @@
   </sheetPr>
   <dimension ref="A2:BE45"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView topLeftCell="AC1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ8" sqref="AQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17181,8 +17181,8 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6712408-D073-4F6B-AB87-5B3788BF5FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C3F8AA-3B10-4222-9406-64964A476ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities" sheetId="23" r:id="rId1"/>
@@ -14383,8 +14383,8 @@
   </sheetPr>
   <dimension ref="A2:BE45"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ8" sqref="AQ8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14406,7 +14406,7 @@
     <col min="15" max="15" width="37.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5546875" style="2" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="2" customWidth="1"/>
     <col min="19" max="20" width="14.5546875" style="2" customWidth="1"/>
     <col min="21" max="22" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" style="2" customWidth="1"/>
@@ -17181,8 +17181,8 @@
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21844,7 +21844,7 @@
   <dimension ref="D3:V11"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21958,7 +21958,7 @@
   <dimension ref="I3:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C3F8AA-3B10-4222-9406-64964A476ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A11705-AE8D-44C6-8F4A-6C4290289072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="458">
   <si>
     <t>TechName</t>
   </si>
@@ -1862,6 +1862,15 @@
   </si>
   <si>
     <t>ENV</t>
+  </si>
+  <si>
+    <t>This efficiency is for h2 and elc</t>
+  </si>
+  <si>
+    <t>We can calculate that for h2 we need 13% of elc for compressor from 30 bar to 200 bar</t>
+  </si>
+  <si>
+    <t>We can say this is just for charging</t>
   </si>
 </sst>
 </file>
@@ -14383,8 +14392,8 @@
   </sheetPr>
   <dimension ref="A2:BE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14990,13 +14999,13 @@
         <v>94</v>
       </c>
       <c r="AB6" s="18">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="18">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="18">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="19" t="s">
         <v>94</v>
@@ -15091,13 +15100,13 @@
         <v>2030</v>
       </c>
       <c r="R7" s="2">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="S7" s="2">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="T7" s="2">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AA7" s="17"/>
       <c r="AB7" s="18"/>
@@ -17179,10 +17188,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17190,7 +17199,7 @@
     <col min="2" max="2" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>123</v>
       </c>
@@ -17210,7 +17219,7 @@
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>125</v>
       </c>
@@ -17252,7 +17261,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>129</v>
       </c>
@@ -17294,7 +17303,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>134</v>
       </c>
@@ -17314,7 +17323,7 @@
       <c r="M4" s="37"/>
       <c r="N4" s="38"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>136</v>
       </c>
@@ -17332,7 +17341,7 @@
       <c r="M5" s="42"/>
       <c r="N5" s="43"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="45" t="s">
         <v>137</v>
@@ -17368,7 +17377,7 @@
       <c r="M6" s="46"/>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="48" t="s">
         <v>139</v>
@@ -17408,7 +17417,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="48" t="s">
         <v>143</v>
@@ -17446,7 +17455,7 @@
       </c>
       <c r="N8" s="49"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="48" t="s">
         <v>144</v>
@@ -17484,7 +17493,7 @@
       <c r="M9" s="51"/>
       <c r="N9" s="49"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="48" t="s">
         <v>146</v>
@@ -17530,7 +17539,7 @@
       </c>
       <c r="N10" s="49"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="48" t="s">
         <v>149</v>
@@ -17578,8 +17587,11 @@
         <v>1</v>
       </c>
       <c r="N11" s="49"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="53" t="s">
         <v>151</v>
@@ -17626,7 +17638,7 @@
       <c r="M12" s="51"/>
       <c r="N12" s="49"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="53" t="s">
         <v>153</v>
@@ -17663,8 +17675,11 @@
       </c>
       <c r="M13" s="51"/>
       <c r="N13" s="49"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="48" t="s">
         <v>155</v>
@@ -17701,8 +17716,11 @@
       </c>
       <c r="M14" s="51"/>
       <c r="N14" s="49"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="48" t="s">
         <v>157</v>
@@ -17742,7 +17760,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="48" t="s">
         <v>160</v>

--- a/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A11705-AE8D-44C6-8F4A-6C4290289072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30526E4-1121-4249-8E94-BDD21A3EA353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities" sheetId="23" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="462">
   <si>
     <t>TechName</t>
   </si>
@@ -1819,27 +1819,6 @@
     <t>eur/pja</t>
   </si>
   <si>
-    <t>12 bar</t>
-  </si>
-  <si>
-    <t>degrees</t>
-  </si>
-  <si>
-    <t>Online Calculation of carbon dioxide (peacesoftware.de)</t>
-  </si>
-  <si>
-    <t>kg/m3</t>
-  </si>
-  <si>
-    <t>eur/kg</t>
-  </si>
-  <si>
-    <t>meur/kt</t>
-  </si>
-  <si>
-    <t>meur/kta</t>
-  </si>
-  <si>
     <t>AMM</t>
   </si>
   <si>
@@ -1871,13 +1850,46 @@
   </si>
   <si>
     <t>We can say this is just for charging</t>
+  </si>
+  <si>
+    <t>COMPRESSOR TO 200 BAR IS INCLUDED</t>
+  </si>
+  <si>
+    <t>hydrogen depressurizer for discharging</t>
+  </si>
+  <si>
+    <t>Intermediate storage for truck transport from biogas plant</t>
+  </si>
+  <si>
+    <t>Est</t>
+  </si>
+  <si>
+    <t>Energy demand [kWh/tCO2/day]</t>
+  </si>
+  <si>
+    <t>Technical life time [years]</t>
+  </si>
+  <si>
+    <t>Investments storage tank [EUR/tCO2]</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>Investment truck filling unit [1000 EUR]</t>
+  </si>
+  <si>
+    <t>Fixed O&amp;M [EUR/tCO2/year]</t>
+  </si>
+  <si>
+    <t>Variable O&amp;M [EUR/tCO2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
@@ -1885,8 +1897,9 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0000000"/>
     <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="50">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2070,6 +2083,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2171,13 +2185,36 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF969696"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF969696"/>
+      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="9">
@@ -2286,7 +2323,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="70">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2364,9 +2401,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2694,9 +2730,90 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="69"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="3" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="4" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="4" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="37" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="26" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="70">
+  <cellStyles count="69">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="calculated" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Calculation 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2709,7 +2826,6 @@
     <cellStyle name="Comma 2 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Comma 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Comma 4" xfId="58" xr:uid="{531D3571-434F-4839-8B3C-5B4173CDEA28}"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="57" xr:uid="{FD566783-A17E-4296-A59C-E724DCB5FDB5}"/>
     <cellStyle name="Hyperlink 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13753,7 +13869,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="2"/>
     <col min="2" max="2" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -13767,7 +13883,7 @@
     <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9">
       <c r="B2" s="21" t="s">
         <v>24</v>
       </c>
@@ -13778,7 +13894,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -13804,7 +13920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="55.2">
       <c r="B4" s="5" t="s">
         <v>76</v>
       </c>
@@ -13830,7 +13946,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
         <v>72</v>
       </c>
@@ -13842,7 +13958,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="B6" s="1" t="s">
         <v>119</v>
       </c>
@@ -13873,7 +13989,7 @@
         <v>ELC</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9">
       <c r="B7" s="1" t="s">
         <v>119</v>
       </c>
@@ -13904,7 +14020,7 @@
         <v>ELC</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
         <v>119</v>
       </c>
@@ -13928,7 +14044,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9" s="1" t="s">
         <v>119</v>
       </c>
@@ -13952,7 +14068,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="B10" s="1" t="s">
         <v>119</v>
       </c>
@@ -13974,7 +14090,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11" s="1" t="s">
         <v>119</v>
       </c>
@@ -13996,7 +14112,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
         <v>119</v>
       </c>
@@ -14018,7 +14134,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9">
       <c r="B13" s="1" t="s">
         <v>119</v>
       </c>
@@ -14040,7 +14156,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9">
       <c r="B14" s="1" t="s">
         <v>119</v>
       </c>
@@ -14062,7 +14178,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9">
       <c r="B15" s="1" t="s">
         <v>119</v>
       </c>
@@ -14084,9 +14200,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9">
       <c r="B16" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>412</v>
@@ -14106,9 +14222,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>413</v>
@@ -14128,7 +14244,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -14138,7 +14254,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -14148,7 +14264,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -14158,7 +14274,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -14168,7 +14284,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -14178,7 +14294,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -14188,7 +14304,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -14198,7 +14314,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -14208,7 +14324,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -14218,7 +14334,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -14228,7 +14344,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -14238,7 +14354,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -14248,7 +14364,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -14258,7 +14374,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -14268,7 +14384,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -14278,7 +14394,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -14288,7 +14404,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -14298,7 +14414,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -14308,7 +14424,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -14318,7 +14434,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -14328,7 +14444,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -14338,7 +14454,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -14348,7 +14464,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -14358,7 +14474,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -14368,7 +14484,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -14392,11 +14508,11 @@
   </sheetPr>
   <dimension ref="A2:BE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -14436,7 +14552,7 @@
     <col min="50" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57">
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -14483,7 +14599,7 @@
       <c r="AQ2" s="9"/>
       <c r="AR2" s="7"/>
     </row>
-    <row r="3" spans="1:57" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" ht="27.6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -14530,13 +14646,13 @@
         <v>4</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>57</v>
@@ -14641,7 +14757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="6" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" s="6" customFormat="1" ht="55.2">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>75</v>
@@ -14800,7 +14916,7 @@
       </c>
       <c r="BE4" s="2"/>
     </row>
-    <row r="5" spans="1:57" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" s="6" customFormat="1" ht="27.6">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
         <v>72</v>
@@ -14937,7 +15053,7 @@
       </c>
       <c r="BE5" s="2"/>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57">
       <c r="B6" s="2" t="s">
         <v>109</v>
       </c>
@@ -15069,7 +15185,7 @@
       </c>
       <c r="BD6" s="16"/>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57">
       <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
@@ -15133,7 +15249,7 @@
       <c r="BC7" s="16"/>
       <c r="BD7" s="16"/>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57">
       <c r="B8" s="2" t="s">
         <v>109</v>
       </c>
@@ -15286,7 +15402,7 @@
       </c>
       <c r="BD8" s="16"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57">
       <c r="B9" s="2" t="s">
         <v>109</v>
       </c>
@@ -15423,7 +15539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57">
       <c r="B10" s="2" t="s">
         <v>77</v>
       </c>
@@ -15454,13 +15570,13 @@
         <v>2030</v>
       </c>
       <c r="R10" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S10" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T10" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AA10" s="17"/>
       <c r="AB10" s="18"/>
@@ -15484,7 +15600,7 @@
       <c r="BC10" s="16"/>
       <c r="BD10" s="16"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57">
       <c r="B11" s="2" t="s">
         <v>109</v>
       </c>
@@ -15513,7 +15629,7 @@
         <v>394</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>388</v>
@@ -15534,13 +15650,13 @@
         <v>25</v>
       </c>
       <c r="AB11" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AC11" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AD11" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AK11" s="19" t="s">
         <v>94</v>
@@ -15564,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57">
       <c r="B12" s="2" t="s">
         <v>109</v>
       </c>
@@ -15594,13 +15710,13 @@
         <v>2030</v>
       </c>
       <c r="R12" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S12" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T12" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
@@ -15612,7 +15728,7 @@
       <c r="AP12" s="19"/>
       <c r="AQ12" s="19"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57">
       <c r="B13" s="2" t="s">
         <v>77</v>
       </c>
@@ -15704,7 +15820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57">
       <c r="B14" s="2" t="s">
         <v>109</v>
       </c>
@@ -15736,7 +15852,7 @@
         <v>389</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="P14" s="2">
         <v>31.536000000000001</v>
@@ -15754,13 +15870,13 @@
         <v>25</v>
       </c>
       <c r="AB14" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AC14" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AD14" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AK14" s="19" t="s">
         <v>94</v>
@@ -15799,7 +15915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57">
       <c r="B15" s="2" t="s">
         <v>109</v>
       </c>
@@ -15829,13 +15945,13 @@
         <v>2030</v>
       </c>
       <c r="R15" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S15" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T15" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AB15" s="18"/>
       <c r="AC15" s="18"/>
@@ -15847,7 +15963,7 @@
       <c r="AP15" s="19"/>
       <c r="AQ15" s="19"/>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57">
       <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
@@ -15876,7 +15992,7 @@
         <v>401</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>396</v>
@@ -15897,13 +16013,13 @@
         <v>25</v>
       </c>
       <c r="AB16" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AC16" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AD16" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AK16" s="19" t="s">
         <v>94</v>
@@ -15928,7 +16044,7 @@
       </c>
       <c r="BD16" s="16"/>
     </row>
-    <row r="17" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:56">
       <c r="B17" s="2" t="s">
         <v>109</v>
       </c>
@@ -15958,13 +16074,13 @@
         <v>2030</v>
       </c>
       <c r="R17" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S17" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T17" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18"/>
@@ -15978,7 +16094,7 @@
       <c r="BC17" s="16"/>
       <c r="BD17" s="16"/>
     </row>
-    <row r="18" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:56">
       <c r="B18" s="2" t="s">
         <v>109</v>
       </c>
@@ -16071,7 +16187,7 @@
       </c>
       <c r="BD18" s="16"/>
     </row>
-    <row r="19" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:56">
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
@@ -16103,7 +16219,7 @@
         <v>397</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="P19" s="2">
         <v>31.536000000000001</v>
@@ -16121,13 +16237,13 @@
         <v>25</v>
       </c>
       <c r="AB19" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AC19" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AD19" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AK19" s="19" t="s">
         <v>94</v>
@@ -16166,7 +16282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:56">
       <c r="B20" s="2" t="s">
         <v>109</v>
       </c>
@@ -16196,13 +16312,13 @@
         <v>2030</v>
       </c>
       <c r="R20" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S20" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T20" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AB20" s="18"/>
       <c r="AC20" s="18"/>
@@ -16216,7 +16332,7 @@
       <c r="BC20" s="16"/>
       <c r="BD20" s="16"/>
     </row>
-    <row r="21" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:56">
       <c r="B21" s="2" t="s">
         <v>78</v>
       </c>
@@ -16245,7 +16361,7 @@
         <v>411</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>404</v>
@@ -16266,13 +16382,13 @@
         <v>25</v>
       </c>
       <c r="AB21" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AC21" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AD21" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AK21" s="19" t="s">
         <v>94</v>
@@ -16296,7 +16412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:56">
       <c r="B22" s="2" t="s">
         <v>77</v>
       </c>
@@ -16326,13 +16442,13 @@
         <v>2030</v>
       </c>
       <c r="R22" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S22" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T22" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AB22" s="18"/>
       <c r="AC22" s="18"/>
@@ -16344,7 +16460,7 @@
       <c r="AP22" s="19"/>
       <c r="AQ22" s="19"/>
     </row>
-    <row r="23" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:56">
       <c r="B23" s="2" t="s">
         <v>78</v>
       </c>
@@ -16436,7 +16552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:56">
       <c r="K24" s="2" t="s">
         <v>408</v>
       </c>
@@ -16447,7 +16563,7 @@
         <v>405</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P24" s="2">
         <v>31.536000000000001</v>
@@ -16465,13 +16581,13 @@
         <v>25</v>
       </c>
       <c r="AB24" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AC24" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AD24" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AK24" s="19" t="s">
         <v>94</v>
@@ -16510,7 +16626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:56">
       <c r="M25" s="1"/>
       <c r="N25" s="2" t="s">
         <v>103</v>
@@ -16519,13 +16635,13 @@
         <v>2030</v>
       </c>
       <c r="R25" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S25" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T25" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AB25" s="18"/>
       <c r="AC25" s="18"/>
@@ -16537,7 +16653,7 @@
       <c r="AP25" s="19"/>
       <c r="AQ25" s="19"/>
     </row>
-    <row r="26" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:56">
       <c r="K26" s="2" t="s">
         <v>415</v>
       </c>
@@ -16545,7 +16661,7 @@
         <v>418</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>412</v>
@@ -16566,13 +16682,13 @@
         <v>25</v>
       </c>
       <c r="AB26" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AC26" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AD26" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AK26" s="19" t="s">
         <v>94</v>
@@ -16600,7 +16716,7 @@
       </c>
       <c r="BD26" s="16"/>
     </row>
-    <row r="27" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:56">
       <c r="N27" s="2" t="s">
         <v>103</v>
       </c>
@@ -16609,13 +16725,13 @@
         <v>2030</v>
       </c>
       <c r="R27" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S27" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T27" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AB27" s="18"/>
       <c r="AC27" s="18"/>
@@ -16632,7 +16748,7 @@
       <c r="BC27" s="16"/>
       <c r="BD27" s="16"/>
     </row>
-    <row r="28" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:56">
       <c r="K28" s="2" t="s">
         <v>416</v>
       </c>
@@ -16679,31 +16795,28 @@
         <v>-3.65</v>
       </c>
       <c r="AO28" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
+        <f>'co2 storage'!E10*1000/1000000+0.75</f>
+        <v>4.55</v>
       </c>
       <c r="AP28" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
+        <f>'co2 storage'!F10*1000/1000000+0.75</f>
+        <v>4.55</v>
       </c>
       <c r="AQ28" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AR28" s="19"/>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="19"/>
-      <c r="AU28" s="2">
-        <f>0.05*AO28</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AV28" s="2">
-        <f t="shared" ref="AV28" si="0">0.05*AP28</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AW28" s="2">
-        <f t="shared" ref="AW28" si="1">0.05*AQ28</f>
-        <v>5.3571428571428577</v>
+        <f>'co2 storage'!G10*1000/1000000+0.75</f>
+        <v>4.55</v>
+      </c>
+      <c r="AR28" s="19">
+        <f>'co2 storage'!C12*1000/1000000</f>
+        <v>0.114</v>
+      </c>
+      <c r="AS28" s="19">
+        <f>'co2 storage'!D12*1000/1000000</f>
+        <v>0.114</v>
+      </c>
+      <c r="AT28" s="19">
+        <f>'co2 storage'!E12*1000/1000000</f>
+        <v>0.114</v>
       </c>
       <c r="AX28" s="2">
         <v>0.5</v>
@@ -16719,7 +16832,7 @@
       </c>
       <c r="BD28" s="16"/>
     </row>
-    <row r="29" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:56">
       <c r="K29" s="2" t="s">
         <v>417</v>
       </c>
@@ -16730,7 +16843,7 @@
         <v>413</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="P29" s="2">
         <v>1</v>
@@ -16748,13 +16861,13 @@
         <v>25</v>
       </c>
       <c r="AB29" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AC29" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AD29" s="18">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AK29" s="19" t="s">
         <v>94</v>
@@ -16784,7 +16897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:56">
       <c r="N30" s="2" t="s">
         <v>103</v>
       </c>
@@ -16792,16 +16905,16 @@
         <v>2030</v>
       </c>
       <c r="R30" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S30" s="2">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T30" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" spans="2:56" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="2:56">
       <c r="K31" s="2" t="s">
         <v>95</v>
       </c>
@@ -16920,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:56" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:56">
       <c r="K32" s="2" t="s">
         <v>98</v>
       </c>
@@ -17039,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="11:56" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:56">
       <c r="K33" s="2" t="s">
         <v>101</v>
       </c>
@@ -17128,16 +17241,13 @@
         <v>94</v>
       </c>
       <c r="AO33" s="2">
-        <f>'180 Lithium Ion Battery'!E26*1000</f>
-        <v>170.14399999999998</v>
+        <v>1E-4</v>
       </c>
       <c r="AP33" s="2">
-        <f>'180 Lithium Ion Battery'!F26*1000</f>
-        <v>106.33999999999999</v>
+        <v>1E-4</v>
       </c>
       <c r="AQ33" s="2">
-        <f>'180 Lithium Ion Battery'!G26*1000</f>
-        <v>63.803999999999988</v>
+        <v>1E-4</v>
       </c>
       <c r="AR33" s="17">
         <f>'180 Lithium Ion Battery'!E28</f>
@@ -17167,12 +17277,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="11:56" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:56">
       <c r="N39" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="11:56" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:56">
       <c r="N45" s="2" t="s">
         <v>94</v>
       </c>
@@ -17190,16 +17300,16 @@
   </sheetPr>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="2" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="23" t="s">
         <v>123</v>
       </c>
@@ -17219,7 +17329,7 @@
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="27" t="s">
         <v>125</v>
       </c>
@@ -17261,7 +17371,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="13.8" thickBot="1">
       <c r="A3" s="30" t="s">
         <v>129</v>
       </c>
@@ -17303,7 +17413,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="35" t="s">
         <v>134</v>
       </c>
@@ -17323,7 +17433,7 @@
       <c r="M4" s="37"/>
       <c r="N4" s="38"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="39" t="s">
         <v>136</v>
       </c>
@@ -17341,7 +17451,7 @@
       <c r="M5" s="42"/>
       <c r="N5" s="43"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="44"/>
       <c r="B6" s="45" t="s">
         <v>137</v>
@@ -17377,7 +17487,7 @@
       <c r="M6" s="46"/>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="47"/>
       <c r="B7" s="48" t="s">
         <v>139</v>
@@ -17417,7 +17527,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="47"/>
       <c r="B8" s="48" t="s">
         <v>143</v>
@@ -17455,7 +17565,7 @@
       </c>
       <c r="N8" s="49"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="47"/>
       <c r="B9" s="48" t="s">
         <v>144</v>
@@ -17493,7 +17603,7 @@
       <c r="M9" s="51"/>
       <c r="N9" s="49"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="47"/>
       <c r="B10" s="48" t="s">
         <v>146</v>
@@ -17539,7 +17649,7 @@
       </c>
       <c r="N10" s="49"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="47"/>
       <c r="B11" s="48" t="s">
         <v>149</v>
@@ -17588,10 +17698,10 @@
       </c>
       <c r="N11" s="49"/>
       <c r="Q11" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="47"/>
       <c r="B12" s="53" t="s">
         <v>151</v>
@@ -17638,7 +17748,7 @@
       <c r="M12" s="51"/>
       <c r="N12" s="49"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="47"/>
       <c r="B13" s="53" t="s">
         <v>153</v>
@@ -17676,10 +17786,10 @@
       <c r="M13" s="51"/>
       <c r="N13" s="49"/>
       <c r="Q13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="47"/>
       <c r="B14" s="48" t="s">
         <v>155</v>
@@ -17717,10 +17827,10 @@
       <c r="M14" s="51"/>
       <c r="N14" s="49"/>
       <c r="Q14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="47"/>
       <c r="B15" s="48" t="s">
         <v>157</v>
@@ -17760,7 +17870,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="47"/>
       <c r="B16" s="48" t="s">
         <v>160</v>
@@ -17798,7 +17908,7 @@
       <c r="M16" s="51"/>
       <c r="N16" s="49"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="47"/>
       <c r="B17" s="48" t="s">
         <v>162</v>
@@ -17838,7 +17948,7 @@
       </c>
       <c r="N17" s="49"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="47"/>
       <c r="B18" s="48" t="s">
         <v>164</v>
@@ -17874,7 +17984,7 @@
       <c r="M18" s="51"/>
       <c r="N18" s="49"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="47"/>
       <c r="B19" s="48" t="s">
         <v>165</v>
@@ -17912,7 +18022,7 @@
       </c>
       <c r="N19" s="49"/>
     </row>
-    <row r="20" spans="1:14" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="30.6">
       <c r="A20" s="54" t="s">
         <v>166</v>
       </c>
@@ -17931,8 +18041,11 @@
       <c r="N20" s="57" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15">
       <c r="A21" s="58"/>
       <c r="B21" s="59" t="s">
         <v>168</v>
@@ -17971,8 +18084,11 @@
         <v>3</v>
       </c>
       <c r="N21" s="57"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q21" s="121" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="58"/>
       <c r="B22" s="59" t="s">
         <v>170</v>
@@ -18012,7 +18128,7 @@
       </c>
       <c r="N22" s="57"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="54" t="s">
         <v>171</v>
       </c>
@@ -18030,7 +18146,7 @@
       <c r="M23" s="56"/>
       <c r="N23" s="61"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="58"/>
       <c r="B24" s="59" t="s">
         <v>172</v>
@@ -18068,7 +18184,7 @@
       </c>
       <c r="N24" s="57"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="58"/>
       <c r="B25" s="59" t="s">
         <v>173</v>
@@ -18106,7 +18222,7 @@
       </c>
       <c r="N25" s="57"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="58"/>
       <c r="B26" s="59" t="s">
         <v>174</v>
@@ -18144,7 +18260,7 @@
       </c>
       <c r="N26" s="57"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="58"/>
       <c r="B27" s="59" t="s">
         <v>175</v>
@@ -18182,7 +18298,7 @@
       </c>
       <c r="N27" s="57"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="58"/>
       <c r="B28" s="59" t="s">
         <v>176</v>
@@ -18220,7 +18336,7 @@
       </c>
       <c r="N28" s="57"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="58"/>
       <c r="B29" s="59" t="s">
         <v>177</v>
@@ -18256,7 +18372,7 @@
       <c r="M29" s="60"/>
       <c r="N29" s="57"/>
     </row>
-    <row r="30" spans="1:14" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="30.6">
       <c r="A30" s="54" t="s">
         <v>178</v>
       </c>
@@ -18276,7 +18392,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="58"/>
       <c r="B31" s="59" t="s">
         <v>180</v>
@@ -18312,7 +18428,7 @@
       <c r="M31" s="60"/>
       <c r="N31" s="57"/>
     </row>
-    <row r="32" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="20.399999999999999">
       <c r="A32" s="58"/>
       <c r="B32" s="59" t="s">
         <v>181</v>
@@ -18348,7 +18464,7 @@
       <c r="M32" s="60"/>
       <c r="N32" s="63"/>
     </row>
-    <row r="33" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="21" thickBot="1">
       <c r="A33" s="64"/>
       <c r="B33" s="65" t="s">
         <v>182</v>
@@ -18386,7 +18502,7 @@
       </c>
       <c r="N33" s="68"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="58"/>
       <c r="B34" s="59"/>
       <c r="C34" s="60"/>
@@ -18402,7 +18518,7 @@
       <c r="M34" s="60"/>
       <c r="N34" s="69"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="70" t="s">
         <v>185</v>
       </c>
@@ -18420,7 +18536,7 @@
       <c r="M35" s="71"/>
       <c r="N35" s="58"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="71"/>
       <c r="B36" s="58" t="s">
         <v>186</v>
@@ -18438,7 +18554,7 @@
       <c r="M36" s="59"/>
       <c r="N36" s="59"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="71"/>
       <c r="B37" s="72" t="s">
         <v>187</v>
@@ -18456,7 +18572,7 @@
       <c r="M37" s="73"/>
       <c r="N37" s="73"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="71"/>
       <c r="B38" s="58" t="s">
         <v>188</v>
@@ -18474,7 +18590,7 @@
       <c r="M38" s="59"/>
       <c r="N38" s="59"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="71"/>
       <c r="B39" s="74" t="s">
         <v>189</v>
@@ -18492,7 +18608,7 @@
       <c r="M39" s="75"/>
       <c r="N39" s="74"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="71"/>
       <c r="B40" s="58" t="s">
         <v>190</v>
@@ -18510,7 +18626,7 @@
       <c r="M40" s="59"/>
       <c r="N40" s="59"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="71"/>
       <c r="B41" s="58" t="s">
         <v>191</v>
@@ -18528,7 +18644,7 @@
       <c r="M41" s="59"/>
       <c r="N41" s="59"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="71"/>
       <c r="B42" s="58" t="s">
         <v>192</v>
@@ -18546,7 +18662,7 @@
       <c r="M42" s="59"/>
       <c r="N42" s="59"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="71"/>
       <c r="B43" s="58" t="s">
         <v>193</v>
@@ -18564,7 +18680,7 @@
       <c r="M43" s="59"/>
       <c r="N43" s="59"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="71"/>
       <c r="B44" s="58" t="s">
         <v>194</v>
@@ -18582,7 +18698,7 @@
       <c r="M44" s="59"/>
       <c r="N44" s="59"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="71"/>
       <c r="B45" s="58" t="s">
         <v>195</v>
@@ -18600,7 +18716,7 @@
       <c r="M45" s="59"/>
       <c r="N45" s="59"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="74"/>
       <c r="B46" s="76" t="s">
         <v>196</v>
@@ -18618,7 +18734,7 @@
       <c r="M46" s="75"/>
       <c r="N46" s="74"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="77"/>
       <c r="B47" s="49" t="s">
         <v>197</v>
@@ -18636,7 +18752,7 @@
       <c r="M47" s="75"/>
       <c r="N47" s="74"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="74" t="s">
         <v>198</v>
       </c>
@@ -18654,7 +18770,7 @@
       <c r="M48" s="75"/>
       <c r="N48" s="74"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="74"/>
       <c r="B49" s="74" t="s">
         <v>199</v>
@@ -18672,7 +18788,7 @@
       <c r="M49" s="78"/>
       <c r="N49" s="77"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="79"/>
       <c r="B50" s="79"/>
       <c r="C50" s="79"/>
@@ -18688,7 +18804,7 @@
       <c r="M50" s="79"/>
       <c r="N50" s="79"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" s="79"/>
       <c r="B51" s="79"/>
       <c r="C51" s="79"/>
@@ -18704,7 +18820,7 @@
       <c r="M51" s="79"/>
       <c r="N51" s="79"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="79"/>
       <c r="B52" s="79"/>
       <c r="C52" s="79"/>
@@ -18732,16 +18848,16 @@
   </sheetPr>
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="2" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="80" t="s">
         <v>123</v>
       </c>
@@ -18761,7 +18877,7 @@
       <c r="M1" s="81"/>
       <c r="N1" s="82"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="83" t="s">
         <v>125</v>
       </c>
@@ -18801,7 +18917,7 @@
       </c>
       <c r="N2" s="82"/>
     </row>
-    <row r="3" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="13.8" thickBot="1">
       <c r="A3" s="87" t="s">
         <v>129</v>
       </c>
@@ -18841,7 +18957,7 @@
       </c>
       <c r="N3" s="82"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="91" t="s">
         <v>134</v>
       </c>
@@ -18861,7 +18977,7 @@
       <c r="M4" s="93"/>
       <c r="N4" s="82"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="94" t="s">
         <v>136</v>
       </c>
@@ -18879,7 +18995,7 @@
       <c r="M5" s="82"/>
       <c r="N5" s="97"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="98"/>
       <c r="B6" s="99" t="s">
         <v>137</v>
@@ -18915,7 +19031,7 @@
       <c r="M6" s="101"/>
       <c r="N6" s="82"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="102"/>
       <c r="B7" s="99" t="s">
         <v>139</v>
@@ -18951,7 +19067,7 @@
       <c r="M7" s="101"/>
       <c r="N7" s="82"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="82"/>
       <c r="B8" s="99" t="s">
         <v>143</v>
@@ -18991,7 +19107,7 @@
       </c>
       <c r="N8" s="82"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="82"/>
       <c r="B9" s="99" t="s">
         <v>144</v>
@@ -19031,7 +19147,7 @@
       </c>
       <c r="N9" s="82"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="82"/>
       <c r="B10" s="99" t="s">
         <v>146</v>
@@ -19071,7 +19187,7 @@
       </c>
       <c r="N10" s="82"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="82"/>
       <c r="B11" s="99" t="s">
         <v>205</v>
@@ -19111,7 +19227,7 @@
       </c>
       <c r="N11" s="82"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="82"/>
       <c r="B12" s="99" t="s">
         <v>207</v>
@@ -19151,7 +19267,7 @@
       </c>
       <c r="N12" s="82"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="82"/>
       <c r="B13" s="99" t="s">
         <v>208</v>
@@ -19191,7 +19307,7 @@
       </c>
       <c r="N13" s="82"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="82"/>
       <c r="B14" s="103" t="s">
         <v>211</v>
@@ -19231,7 +19347,7 @@
       </c>
       <c r="N14" s="82"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="82"/>
       <c r="B15" s="99" t="s">
         <v>213</v>
@@ -19271,7 +19387,7 @@
       </c>
       <c r="N15" s="82"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="82"/>
       <c r="B16" s="99" t="s">
         <v>160</v>
@@ -19309,7 +19425,7 @@
       <c r="M16" s="101"/>
       <c r="N16" s="82"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="82"/>
       <c r="B17" s="99" t="s">
         <v>162</v>
@@ -19347,7 +19463,7 @@
       <c r="M17" s="101"/>
       <c r="N17" s="82"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="82"/>
       <c r="B18" s="99" t="s">
         <v>164</v>
@@ -19387,7 +19503,7 @@
       </c>
       <c r="N18" s="82"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="82"/>
       <c r="B19" s="99" t="s">
         <v>165</v>
@@ -19425,7 +19541,7 @@
       </c>
       <c r="N19" s="82"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="105" t="s">
         <v>166</v>
       </c>
@@ -19443,7 +19559,7 @@
       <c r="M20" s="82"/>
       <c r="N20" s="82"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="82"/>
       <c r="B21" s="99" t="s">
         <v>218</v>
@@ -19483,7 +19599,7 @@
       </c>
       <c r="N21" s="82"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="82"/>
       <c r="B22" s="99" t="s">
         <v>220</v>
@@ -19523,7 +19639,7 @@
       </c>
       <c r="N22" s="82"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="105" t="s">
         <v>221</v>
       </c>
@@ -19541,7 +19657,7 @@
       <c r="M23" s="82"/>
       <c r="N23" s="82"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="82"/>
       <c r="B24" s="99" t="s">
         <v>172</v>
@@ -19581,7 +19697,7 @@
       </c>
       <c r="N24" s="82"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="82"/>
       <c r="B25" s="99" t="s">
         <v>223</v>
@@ -19621,7 +19737,7 @@
       </c>
       <c r="N25" s="82"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="82"/>
       <c r="B26" s="99" t="s">
         <v>225</v>
@@ -19661,7 +19777,7 @@
       </c>
       <c r="N26" s="82"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="82"/>
       <c r="B27" s="99" t="s">
         <v>228</v>
@@ -19701,7 +19817,7 @@
       </c>
       <c r="N27" s="82"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="82"/>
       <c r="B28" s="99" t="s">
         <v>230</v>
@@ -19741,7 +19857,7 @@
       </c>
       <c r="N28" s="82"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="82"/>
       <c r="B29" s="99" t="s">
         <v>177</v>
@@ -19781,7 +19897,7 @@
       </c>
       <c r="N29" s="82"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="105" t="s">
         <v>178</v>
       </c>
@@ -19799,7 +19915,7 @@
       <c r="M30" s="82"/>
       <c r="N30" s="82"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="82"/>
       <c r="B31" s="99" t="s">
         <v>235</v>
@@ -19839,7 +19955,7 @@
       </c>
       <c r="N31" s="82"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="82"/>
       <c r="B32" s="99" t="s">
         <v>237</v>
@@ -19879,7 +19995,7 @@
       </c>
       <c r="N32" s="82"/>
     </row>
-    <row r="33" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="20.399999999999999">
       <c r="A33" s="82"/>
       <c r="B33" s="99" t="s">
         <v>239</v>
@@ -19919,7 +20035,7 @@
       </c>
       <c r="N33" s="82"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="82"/>
       <c r="B34" s="99" t="s">
         <v>242</v>
@@ -19959,7 +20075,7 @@
       </c>
       <c r="N34" s="82"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="82"/>
       <c r="B35" s="99" t="s">
         <v>245</v>
@@ -19999,7 +20115,7 @@
       </c>
       <c r="N35" s="82"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="82"/>
       <c r="B36" s="99" t="s">
         <v>248</v>
@@ -20039,7 +20155,7 @@
       </c>
       <c r="N36" s="82"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="82"/>
       <c r="B37" s="99" t="s">
         <v>249</v>
@@ -20079,7 +20195,7 @@
       </c>
       <c r="N37" s="82"/>
     </row>
-    <row r="38" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="13.8" thickBot="1">
       <c r="A38" s="113"/>
       <c r="B38" s="114" t="s">
         <v>250</v>
@@ -20119,7 +20235,7 @@
       </c>
       <c r="N38" s="82"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="82"/>
       <c r="B39" s="99"/>
       <c r="C39" s="60"/>
@@ -20135,7 +20251,7 @@
       <c r="M39" s="82"/>
       <c r="N39" s="82"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="102" t="s">
         <v>251</v>
       </c>
@@ -20153,7 +20269,7 @@
       <c r="M40" s="82"/>
       <c r="N40" s="82"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="82"/>
       <c r="B41" s="116" t="s">
         <v>252</v>
@@ -20171,7 +20287,7 @@
       <c r="M41" s="82"/>
       <c r="N41" s="82"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="82"/>
       <c r="B42" s="116" t="s">
         <v>253</v>
@@ -20189,7 +20305,7 @@
       <c r="M42" s="82"/>
       <c r="N42" s="82"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="82"/>
       <c r="B43" s="116" t="s">
         <v>254</v>
@@ -20207,7 +20323,7 @@
       <c r="M43" s="82"/>
       <c r="N43" s="82"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="82"/>
       <c r="B44" s="116" t="s">
         <v>255</v>
@@ -20225,7 +20341,7 @@
       <c r="M44" s="82"/>
       <c r="N44" s="82"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="82"/>
       <c r="B45" s="116" t="s">
         <v>256</v>
@@ -20243,7 +20359,7 @@
       <c r="M45" s="82"/>
       <c r="N45" s="82"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="82"/>
       <c r="B46" s="116" t="s">
         <v>257</v>
@@ -20261,7 +20377,7 @@
       <c r="M46" s="82"/>
       <c r="N46" s="82"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="82"/>
       <c r="B47" s="116" t="s">
         <v>258</v>
@@ -20279,7 +20395,7 @@
       <c r="M47" s="82"/>
       <c r="N47" s="82"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="82"/>
       <c r="B48" s="116" t="s">
         <v>259</v>
@@ -20297,7 +20413,7 @@
       <c r="M48" s="82"/>
       <c r="N48" s="82"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="82"/>
       <c r="B49" s="116" t="s">
         <v>260</v>
@@ -20333,7 +20449,7 @@
       <c r="M49" s="82"/>
       <c r="N49" s="82"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="82"/>
       <c r="B50" s="116" t="s">
         <v>261</v>
@@ -20351,7 +20467,7 @@
       <c r="M50" s="82"/>
       <c r="N50" s="82"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" s="82"/>
       <c r="B51" s="116" t="s">
         <v>262</v>
@@ -20369,7 +20485,7 @@
       <c r="M51" s="82"/>
       <c r="N51" s="82"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="82"/>
       <c r="B52" s="116" t="s">
         <v>263</v>
@@ -20405,7 +20521,7 @@
       <c r="M52" s="82"/>
       <c r="N52" s="82"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" s="82"/>
       <c r="B53" s="116" t="s">
         <v>264</v>
@@ -20423,7 +20539,7 @@
       <c r="M53" s="82"/>
       <c r="N53" s="82"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" s="82"/>
       <c r="B54" s="116" t="s">
         <v>265</v>
@@ -20459,7 +20575,7 @@
       <c r="M54" s="82"/>
       <c r="N54" s="82"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" s="82"/>
       <c r="B55" s="116" t="s">
         <v>266</v>
@@ -20477,7 +20593,7 @@
       <c r="M55" s="82"/>
       <c r="N55" s="82"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" s="82"/>
       <c r="B56" s="116" t="s">
         <v>267</v>
@@ -20495,7 +20611,7 @@
       <c r="M56" s="82"/>
       <c r="N56" s="82"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" s="82"/>
       <c r="B57" s="116" t="s">
         <v>268</v>
@@ -20531,7 +20647,7 @@
       <c r="M57" s="82"/>
       <c r="N57" s="82"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" s="82"/>
       <c r="B58" s="116" t="s">
         <v>269</v>
@@ -20549,7 +20665,7 @@
       <c r="M58" s="82"/>
       <c r="N58" s="82"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" s="82"/>
       <c r="B59" s="116" t="s">
         <v>270</v>
@@ -20567,7 +20683,7 @@
       <c r="M59" s="82"/>
       <c r="N59" s="82"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" s="82"/>
       <c r="B60" s="106"/>
       <c r="C60" s="82"/>
@@ -20583,7 +20699,7 @@
       <c r="M60" s="82"/>
       <c r="N60" s="82"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" s="82"/>
       <c r="B61" s="106"/>
       <c r="C61" s="82"/>
@@ -20599,7 +20715,7 @@
       <c r="M61" s="82"/>
       <c r="N61" s="82"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" s="102" t="s">
         <v>271</v>
       </c>
@@ -20617,7 +20733,7 @@
       <c r="M62" s="82"/>
       <c r="N62" s="82"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" s="82"/>
       <c r="B63" s="106" t="s">
         <v>272</v>
@@ -20637,7 +20753,7 @@
       <c r="M63" s="82"/>
       <c r="N63" s="82"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="82"/>
       <c r="B64" s="106" t="s">
         <v>210</v>
@@ -20657,7 +20773,7 @@
       <c r="M64" s="82"/>
       <c r="N64" s="82"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" s="82"/>
       <c r="B65" s="106" t="s">
         <v>275</v>
@@ -20677,7 +20793,7 @@
       <c r="M65" s="82"/>
       <c r="N65" s="82"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" s="82"/>
       <c r="B66" s="106" t="s">
         <v>277</v>
@@ -20697,7 +20813,7 @@
       <c r="M66" s="82"/>
       <c r="N66" s="82"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" s="82"/>
       <c r="B67" s="106" t="s">
         <v>279</v>
@@ -20717,7 +20833,7 @@
       <c r="M67" s="82"/>
       <c r="N67" s="82"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" s="82"/>
       <c r="B68" s="106" t="s">
         <v>281</v>
@@ -20737,7 +20853,7 @@
       <c r="M68" s="82"/>
       <c r="N68" s="82"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" s="82"/>
       <c r="B69" s="106" t="s">
         <v>283</v>
@@ -20757,7 +20873,7 @@
       <c r="M69" s="82"/>
       <c r="N69" s="82"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" s="82"/>
       <c r="B70" s="106" t="s">
         <v>285</v>
@@ -20777,7 +20893,7 @@
       <c r="M70" s="82"/>
       <c r="N70" s="82"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" s="82"/>
       <c r="B71" s="106" t="s">
         <v>287</v>
@@ -20797,7 +20913,7 @@
       <c r="M71" s="82"/>
       <c r="N71" s="82"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72" s="82"/>
       <c r="B72" s="106" t="s">
         <v>289</v>
@@ -20817,7 +20933,7 @@
       <c r="M72" s="82"/>
       <c r="N72" s="82"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" s="82"/>
       <c r="B73" s="106" t="s">
         <v>291</v>
@@ -20837,7 +20953,7 @@
       <c r="M73" s="82"/>
       <c r="N73" s="82"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" s="82"/>
       <c r="B74" s="106" t="s">
         <v>293</v>
@@ -20857,7 +20973,7 @@
       <c r="M74" s="82"/>
       <c r="N74" s="82"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" s="82"/>
       <c r="B75" s="106" t="s">
         <v>295</v>
@@ -20877,7 +20993,7 @@
       <c r="M75" s="82"/>
       <c r="N75" s="82"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" s="82"/>
       <c r="B76" s="106" t="s">
         <v>297</v>
@@ -20897,7 +21013,7 @@
       <c r="M76" s="82"/>
       <c r="N76" s="82"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77" s="82"/>
       <c r="B77" s="106" t="s">
         <v>299</v>
@@ -20917,7 +21033,7 @@
       <c r="M77" s="82"/>
       <c r="N77" s="82"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14">
       <c r="A78" s="82"/>
       <c r="B78" s="106" t="s">
         <v>301</v>
@@ -20937,7 +21053,7 @@
       <c r="M78" s="82"/>
       <c r="N78" s="82"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79" s="82"/>
       <c r="B79" s="106" t="s">
         <v>303</v>
@@ -20957,7 +21073,7 @@
       <c r="M79" s="82"/>
       <c r="N79" s="82"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80" s="82"/>
       <c r="B80" s="106" t="s">
         <v>305</v>
@@ -20977,7 +21093,7 @@
       <c r="M80" s="82"/>
       <c r="N80" s="82"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="A81" s="82"/>
       <c r="B81" s="106" t="s">
         <v>307</v>
@@ -20997,7 +21113,7 @@
       <c r="M81" s="82"/>
       <c r="N81" s="82"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82" s="82"/>
       <c r="B82" s="106" t="s">
         <v>309</v>
@@ -21017,7 +21133,7 @@
       <c r="M82" s="82"/>
       <c r="N82" s="82"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" s="82"/>
       <c r="B83" s="106" t="s">
         <v>311</v>
@@ -21037,7 +21153,7 @@
       <c r="M83" s="82"/>
       <c r="N83" s="82"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="A84" s="82"/>
       <c r="B84" s="106" t="s">
         <v>232</v>
@@ -21057,7 +21173,7 @@
       <c r="M84" s="82"/>
       <c r="N84" s="82"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="A85" s="82"/>
       <c r="B85" s="106" t="s">
         <v>314</v>
@@ -21077,7 +21193,7 @@
       <c r="M85" s="82"/>
       <c r="N85" s="82"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="A86" s="82"/>
       <c r="B86" s="106" t="s">
         <v>316</v>
@@ -21097,7 +21213,7 @@
       <c r="M86" s="82"/>
       <c r="N86" s="82"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" s="82"/>
       <c r="B87" s="106" t="s">
         <v>318</v>
@@ -21117,7 +21233,7 @@
       <c r="M87" s="82"/>
       <c r="N87" s="82"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="A88" s="82"/>
       <c r="B88" s="106" t="s">
         <v>320</v>
@@ -21137,7 +21253,7 @@
       <c r="M88" s="82"/>
       <c r="N88" s="82"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="A89" s="82"/>
       <c r="B89" s="106" t="s">
         <v>322</v>
@@ -21157,7 +21273,7 @@
       <c r="M89" s="82"/>
       <c r="N89" s="82"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="A90" s="82"/>
       <c r="B90" s="106" t="s">
         <v>324</v>
@@ -21177,7 +21293,7 @@
       <c r="M90" s="82"/>
       <c r="N90" s="82"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91" s="82"/>
       <c r="B91" s="106" t="s">
         <v>326</v>
@@ -21197,7 +21313,7 @@
       <c r="M91" s="82"/>
       <c r="N91" s="82"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92" s="82"/>
       <c r="B92" s="106" t="s">
         <v>328</v>
@@ -21217,7 +21333,7 @@
       <c r="M92" s="82"/>
       <c r="N92" s="82"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="A93" s="82"/>
       <c r="B93" s="106" t="s">
         <v>330</v>
@@ -21237,7 +21353,7 @@
       <c r="M93" s="82"/>
       <c r="N93" s="82"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="A94" s="82"/>
       <c r="B94" s="106" t="s">
         <v>332</v>
@@ -21257,7 +21373,7 @@
       <c r="M94" s="82"/>
       <c r="N94" s="82"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95" s="82"/>
       <c r="B95" s="106" t="s">
         <v>334</v>
@@ -21277,7 +21393,7 @@
       <c r="M95" s="82"/>
       <c r="N95" s="82"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96" s="82"/>
       <c r="B96" s="106" t="s">
         <v>336</v>
@@ -21297,7 +21413,7 @@
       <c r="M96" s="82"/>
       <c r="N96" s="82"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14">
       <c r="A97" s="82"/>
       <c r="B97" s="106" t="s">
         <v>338</v>
@@ -21317,7 +21433,7 @@
       <c r="M97" s="82"/>
       <c r="N97" s="82"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14">
       <c r="A98" s="82"/>
       <c r="B98" s="106" t="s">
         <v>340</v>
@@ -21337,7 +21453,7 @@
       <c r="M98" s="82"/>
       <c r="N98" s="82"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99" s="82"/>
       <c r="B99" s="106" t="s">
         <v>342</v>
@@ -21357,7 +21473,7 @@
       <c r="M99" s="82"/>
       <c r="N99" s="82"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100" s="82"/>
       <c r="B100" s="106" t="s">
         <v>217</v>
@@ -21377,7 +21493,7 @@
       <c r="M100" s="82"/>
       <c r="N100" s="82"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" s="82"/>
       <c r="B101" s="106" t="s">
         <v>345</v>
@@ -21397,7 +21513,7 @@
       <c r="M101" s="82"/>
       <c r="N101" s="82"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102" s="82"/>
       <c r="B102" s="106" t="s">
         <v>347</v>
@@ -21417,7 +21533,7 @@
       <c r="M102" s="82"/>
       <c r="N102" s="82"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103" s="82"/>
       <c r="B103" s="106" t="s">
         <v>349</v>
@@ -21437,7 +21553,7 @@
       <c r="M103" s="82"/>
       <c r="N103" s="82"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104" s="82"/>
       <c r="B104" s="106" t="s">
         <v>351</v>
@@ -21457,7 +21573,7 @@
       <c r="M104" s="82"/>
       <c r="N104" s="82"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" s="82"/>
       <c r="B105" s="106" t="s">
         <v>353</v>
@@ -21477,7 +21593,7 @@
       <c r="M105" s="82"/>
       <c r="N105" s="82"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" s="82"/>
       <c r="B106" s="106" t="s">
         <v>224</v>
@@ -21497,7 +21613,7 @@
       <c r="M106" s="82"/>
       <c r="N106" s="82"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14">
       <c r="A107" s="82"/>
       <c r="B107" s="106" t="s">
         <v>356</v>
@@ -21517,7 +21633,7 @@
       <c r="M107" s="82"/>
       <c r="N107" s="82"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14">
       <c r="A108" s="82"/>
       <c r="B108" s="106" t="s">
         <v>358</v>
@@ -21537,7 +21653,7 @@
       <c r="M108" s="82"/>
       <c r="N108" s="82"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14">
       <c r="A109" s="82"/>
       <c r="B109" s="106" t="s">
         <v>360</v>
@@ -21557,7 +21673,7 @@
       <c r="M109" s="82"/>
       <c r="N109" s="82"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14">
       <c r="A110" s="82"/>
       <c r="B110" s="106" t="s">
         <v>362</v>
@@ -21577,7 +21693,7 @@
       <c r="M110" s="82"/>
       <c r="N110" s="82"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14">
       <c r="A111" s="82"/>
       <c r="B111" s="106" t="s">
         <v>364</v>
@@ -21597,7 +21713,7 @@
       <c r="M111" s="82"/>
       <c r="N111" s="82"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14">
       <c r="A112" s="82"/>
       <c r="B112" s="106" t="s">
         <v>366</v>
@@ -21617,7 +21733,7 @@
       <c r="M112" s="82"/>
       <c r="N112" s="82"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14">
       <c r="A113" s="82"/>
       <c r="B113" s="106" t="s">
         <v>368</v>
@@ -21637,7 +21753,7 @@
       <c r="M113" s="82"/>
       <c r="N113" s="82"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="A114" s="82"/>
       <c r="B114" s="106" t="s">
         <v>370</v>
@@ -21657,7 +21773,7 @@
       <c r="M114" s="82"/>
       <c r="N114" s="82"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14">
       <c r="A115" s="82"/>
       <c r="B115" s="106" t="s">
         <v>219</v>
@@ -21677,7 +21793,7 @@
       <c r="M115" s="82"/>
       <c r="N115" s="82"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="A116" s="82"/>
       <c r="B116" s="106" t="s">
         <v>373</v>
@@ -21697,7 +21813,7 @@
       <c r="M116" s="82"/>
       <c r="N116" s="82"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14">
       <c r="A117" s="82"/>
       <c r="B117" s="106" t="s">
         <v>234</v>
@@ -21717,7 +21833,7 @@
       <c r="M117" s="82"/>
       <c r="N117" s="82"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14">
       <c r="A118" s="82"/>
       <c r="B118" s="106" t="s">
         <v>376</v>
@@ -21737,7 +21853,7 @@
       <c r="M118" s="82"/>
       <c r="N118" s="82"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14">
       <c r="A119" s="82"/>
       <c r="B119" s="106"/>
       <c r="C119" s="82"/>
@@ -21753,7 +21869,7 @@
       <c r="M119" s="82"/>
       <c r="N119" s="82"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14">
       <c r="A120" s="82"/>
       <c r="B120" s="106"/>
       <c r="C120" s="82"/>
@@ -21769,7 +21885,7 @@
       <c r="M120" s="82"/>
       <c r="N120" s="82"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14">
       <c r="A121" s="82"/>
       <c r="B121" s="106"/>
       <c r="C121" s="82"/>
@@ -21785,7 +21901,7 @@
       <c r="M121" s="82"/>
       <c r="N121" s="82"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14">
       <c r="A122" s="82"/>
       <c r="B122" s="106"/>
       <c r="C122" s="82"/>
@@ -21801,7 +21917,7 @@
       <c r="M122" s="82"/>
       <c r="N122" s="82"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14">
       <c r="A123" s="82"/>
       <c r="B123" s="106"/>
       <c r="C123" s="82"/>
@@ -21817,7 +21933,7 @@
       <c r="M123" s="82"/>
       <c r="N123" s="82"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14">
       <c r="A124" s="82"/>
       <c r="B124" s="106"/>
       <c r="C124" s="82"/>
@@ -21833,7 +21949,7 @@
       <c r="M124" s="82"/>
       <c r="N124" s="82"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14">
       <c r="A125" s="82"/>
       <c r="B125" s="106"/>
       <c r="C125" s="82"/>
@@ -21865,9 +21981,9 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="3" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:22">
       <c r="D3">
         <v>30</v>
       </c>
@@ -21890,7 +22006,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:22">
       <c r="M4" s="117">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -21904,7 +22020,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:22">
       <c r="D5">
         <v>1000</v>
       </c>
@@ -21912,7 +22028,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:22">
       <c r="R6">
         <f>R4*I3</f>
         <v>1270</v>
@@ -21921,7 +22037,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:22">
       <c r="D7">
         <f>D3*D5</f>
         <v>30000</v>
@@ -21930,7 +22046,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="8" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:22">
       <c r="U8" s="119" t="s">
         <v>434</v>
       </c>
@@ -21938,7 +22054,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:22">
       <c r="H9" s="118">
         <f>D5/(1000*11.5*M4*1000000)</f>
         <v>8.6956521739130432E-2</v>
@@ -21954,7 +22070,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:22">
       <c r="R11" s="118">
         <f>R3/(R9*1000000*0.5)</f>
         <v>393.70078740157487</v>
@@ -21979,9 +22095,9 @@
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="3" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:21">
       <c r="I3">
         <v>15.8</v>
       </c>
@@ -21998,7 +22114,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:21">
       <c r="O4" s="117">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -22012,7 +22128,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:21">
       <c r="T7">
         <f>T4*I3</f>
         <v>1580</v>
@@ -22021,10 +22137,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="9:21">
       <c r="T8" s="119"/>
     </row>
-    <row r="10" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="9:21">
       <c r="T10" s="117">
         <f>T7*O4</f>
         <v>1.58E-3</v>
@@ -22033,7 +22149,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:21">
       <c r="T12" s="118">
         <f>T3/(T10*1000000*0.5)</f>
         <v>253.16455696202533</v>
@@ -22058,13 +22174,13 @@
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:18">
       <c r="E3" s="119" t="s">
         <v>436</v>
       </c>
@@ -22081,7 +22197,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:18">
       <c r="E4">
         <v>0.8</v>
       </c>
@@ -22095,7 +22211,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:18">
       <c r="I7">
         <f>E4*I3</f>
         <v>3.4415999999999997E-5</v>
@@ -22111,7 +22227,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="11" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:18">
       <c r="Q11">
         <f>Q7/I7/1000000/0.3</f>
         <v>193.70835270416862</v>
@@ -22130,86 +22246,609 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="C1:K8"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="121" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F2">
-        <v>150000</v>
-      </c>
-      <c r="G2" s="119" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="119" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>-15</v>
-      </c>
-      <c r="D4" s="119" t="s">
-        <v>441</v>
-      </c>
-      <c r="F4" s="119">
-        <v>100</v>
-      </c>
-      <c r="G4" s="119" t="s">
-        <v>422</v>
-      </c>
-      <c r="I4">
-        <f>F2/F4</f>
-        <v>1500</v>
-      </c>
-      <c r="J4" s="119" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="119">
-        <v>28</v>
-      </c>
-      <c r="D5" s="119" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="I6">
-        <f>I4/28</f>
-        <v>53.571428571428569</v>
-      </c>
-      <c r="J6" s="119" t="s">
-        <v>444</v>
-      </c>
-      <c r="K6" s="119" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="I8">
-        <f>I6/0.5</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="K8" s="119" t="s">
-        <v>446</v>
-      </c>
+    <row r="1" spans="1:15" ht="14.4">
+      <c r="A1" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="124" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="126"/>
+      <c r="C2" s="127">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="28">
+        <v>2025</v>
+      </c>
+      <c r="E2" s="28">
+        <v>2030</v>
+      </c>
+      <c r="F2" s="28">
+        <v>2040</v>
+      </c>
+      <c r="G2" s="28">
+        <v>2050</v>
+      </c>
+      <c r="H2" s="28">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="28">
+        <v>2025</v>
+      </c>
+      <c r="J2" s="28">
+        <v>2050</v>
+      </c>
+      <c r="K2" s="28">
+        <v>2050</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+    </row>
+    <row r="3" spans="1:15" ht="13.8" thickBot="1">
+      <c r="A3" s="129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="130"/>
+      <c r="C3" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="131"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="136"/>
+      <c r="B6" s="137" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" s="71"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="136"/>
+      <c r="B7" s="137" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="140">
+        <v>25</v>
+      </c>
+      <c r="D7" s="140">
+        <v>25</v>
+      </c>
+      <c r="E7" s="140">
+        <v>25</v>
+      </c>
+      <c r="F7" s="140">
+        <v>25</v>
+      </c>
+      <c r="G7" s="140">
+        <v>25</v>
+      </c>
+      <c r="H7" s="140">
+        <v>20</v>
+      </c>
+      <c r="I7" s="140">
+        <v>30</v>
+      </c>
+      <c r="J7" s="140">
+        <v>20</v>
+      </c>
+      <c r="K7" s="140">
+        <v>30</v>
+      </c>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71">
+        <v>1</v>
+      </c>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="136"/>
+      <c r="B8" s="141" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="142">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="142">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="142">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="142">
+        <v>1</v>
+      </c>
+      <c r="G8" s="142">
+        <v>1</v>
+      </c>
+      <c r="H8" s="142">
+        <v>1</v>
+      </c>
+      <c r="I8" s="142">
+        <v>2</v>
+      </c>
+      <c r="J8" s="142">
+        <v>1</v>
+      </c>
+      <c r="K8" s="142">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71">
+        <v>1</v>
+      </c>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="133" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="136"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="136"/>
+      <c r="B10" s="141" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="140">
+        <v>3800</v>
+      </c>
+      <c r="D10" s="140">
+        <v>3800</v>
+      </c>
+      <c r="E10" s="140">
+        <v>3800</v>
+      </c>
+      <c r="F10" s="140">
+        <v>3800</v>
+      </c>
+      <c r="G10" s="140">
+        <v>3800</v>
+      </c>
+      <c r="H10" s="140">
+        <v>3050</v>
+      </c>
+      <c r="I10" s="140">
+        <v>4550</v>
+      </c>
+      <c r="J10" s="140">
+        <v>3050</v>
+      </c>
+      <c r="K10" s="140">
+        <v>4550</v>
+      </c>
+      <c r="L10" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="71" t="s">
+        <v>458</v>
+      </c>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="136"/>
+      <c r="B11" s="137" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="144">
+        <v>75.463310199741599</v>
+      </c>
+      <c r="D11" s="144">
+        <v>75.463310199741599</v>
+      </c>
+      <c r="E11" s="144">
+        <v>75.463310199741599</v>
+      </c>
+      <c r="F11" s="144">
+        <v>75.463310199741599</v>
+      </c>
+      <c r="G11" s="144">
+        <v>75.463310199741599</v>
+      </c>
+      <c r="H11" s="144">
+        <v>60.37</v>
+      </c>
+      <c r="I11" s="145">
+        <v>90.56</v>
+      </c>
+      <c r="J11" s="145">
+        <v>60.37</v>
+      </c>
+      <c r="K11" s="145">
+        <v>90.56</v>
+      </c>
+      <c r="L11" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="M11" s="71">
+        <v>1</v>
+      </c>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="136"/>
+      <c r="B12" s="137" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" s="140">
+        <v>114</v>
+      </c>
+      <c r="D12" s="140">
+        <v>114</v>
+      </c>
+      <c r="E12" s="140">
+        <v>114</v>
+      </c>
+      <c r="F12" s="140">
+        <v>114</v>
+      </c>
+      <c r="G12" s="140">
+        <v>114</v>
+      </c>
+      <c r="H12" s="139">
+        <v>91.5</v>
+      </c>
+      <c r="I12" s="140">
+        <v>136.5</v>
+      </c>
+      <c r="J12" s="139">
+        <v>91.5</v>
+      </c>
+      <c r="K12" s="140">
+        <v>136.5</v>
+      </c>
+      <c r="L12" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="M12" s="71">
+        <v>1</v>
+      </c>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.8" thickBot="1">
+      <c r="A13" s="146"/>
+      <c r="B13" s="147" t="s">
+        <v>461</v>
+      </c>
+      <c r="C13" s="148">
+        <v>0</v>
+      </c>
+      <c r="D13" s="148">
+        <v>0</v>
+      </c>
+      <c r="E13" s="148">
+        <v>0</v>
+      </c>
+      <c r="F13" s="148">
+        <v>0</v>
+      </c>
+      <c r="G13" s="148">
+        <v>0</v>
+      </c>
+      <c r="H13" s="149"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="150" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="150">
+        <v>1</v>
+      </c>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="136"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="136"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="136"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="136" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="128"/>
+      <c r="B18" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="128"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="128"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="128"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="128"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="128"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="128"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="https://www.peacesoftware.de/einigewerte/calc_co2.php7" xr:uid="{E879A35B-9A77-482F-99E9-39E04096D99E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22221,11 +22860,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="32" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="33" workbookViewId="0">
       <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30526E4-1121-4249-8E94-BDD21A3EA353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8568D2-DFFE-4611-9C9F-FC45601490A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="462">
   <si>
     <t>TechName</t>
   </si>
@@ -14508,8 +14508,8 @@
   </sheetPr>
   <dimension ref="A2:BE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR14" sqref="AR14"/>
+    <sheetView tabSelected="1" topLeftCell="J3" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -16914,377 +16914,372 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="2:56">
-      <c r="K31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P31" s="2">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U31" s="2">
-        <v>20</v>
-      </c>
-      <c r="V31" s="2">
-        <v>25</v>
-      </c>
-      <c r="W31" s="2">
-        <v>30</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB31" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="AC31" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO31" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AR31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:56">
-      <c r="K32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P32" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U32" s="2">
-        <v>20</v>
-      </c>
-      <c r="V32" s="2">
-        <v>25</v>
-      </c>
-      <c r="W32" s="2">
-        <v>30</v>
-      </c>
-      <c r="X32" s="2">
-        <v>14000</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>30000</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>50000</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK32" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AL32" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AM32" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AN32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO32" s="2">
-        <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
-        <v>41945.222222222219</v>
-      </c>
-      <c r="AP32" s="2">
-        <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
-        <v>27766.555555555551</v>
-      </c>
-      <c r="AQ32" s="2">
-        <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
-        <v>22154.166666666664</v>
-      </c>
-      <c r="AU32" s="2">
-        <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AV32" s="2">
-        <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
-        <v>0.50216111111111106</v>
-      </c>
-      <c r="AW32" s="2">
-        <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
-        <v>0.47262222222222222</v>
-      </c>
-      <c r="AX32" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AY32" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AZ32" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BC32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="11:56">
-      <c r="K33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P33" s="2">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U33" s="2">
-        <v>20</v>
-      </c>
-      <c r="V33" s="2">
-        <v>25</v>
-      </c>
-      <c r="W33" s="2">
-        <v>30</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO33" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AP33" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ33" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AR33" s="17">
-        <f>'180 Lithium Ion Battery'!E28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AS33" s="17">
-        <f>'180 Lithium Ion Battery'!F28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AT33" s="17">
-        <f>'180 Lithium Ion Battery'!G28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AU33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC33" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD33" s="2">
-        <v>1</v>
-      </c>
-    </row>
     <row r="39" spans="11:56">
       <c r="N39" s="2" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="43" spans="11:56">
+      <c r="K43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P43" s="2">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U43" s="2">
+        <v>20</v>
+      </c>
+      <c r="V43" s="2">
+        <v>25</v>
+      </c>
+      <c r="W43" s="2">
+        <v>30</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AE43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO43" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AP43" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ43" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AR43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="11:56">
+      <c r="K44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U44" s="2">
+        <v>20</v>
+      </c>
+      <c r="V44" s="2">
+        <v>25</v>
+      </c>
+      <c r="W44" s="2">
+        <v>30</v>
+      </c>
+      <c r="X44" s="2">
+        <v>14000</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>30000</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK44" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AL44" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AM44" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AN44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO44" s="2">
+        <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
+        <v>41945.222222222219</v>
+      </c>
+      <c r="AP44" s="2">
+        <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
+        <v>27766.555555555551</v>
+      </c>
+      <c r="AQ44" s="2">
+        <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
+        <v>22154.166666666664</v>
+      </c>
+      <c r="AU44" s="2">
+        <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AV44" s="2">
+        <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
+        <v>0.50216111111111106</v>
+      </c>
+      <c r="AW44" s="2">
+        <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
+        <v>0.47262222222222222</v>
+      </c>
+      <c r="AX44" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AY44" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AZ44" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BC44" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="45" spans="11:56">
-      <c r="N45" s="2" t="s">
+      <c r="K45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P45" s="2">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R45" s="2" t="s">
         <v>94</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U45" s="2">
+        <v>20</v>
+      </c>
+      <c r="V45" s="2">
+        <v>25</v>
+      </c>
+      <c r="W45" s="2">
+        <v>30</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AE45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO45" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AP45" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ45" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AR45" s="17">
+        <f>'180 Lithium Ion Battery'!E28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AS45" s="17">
+        <f>'180 Lithium Ion Battery'!F28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AT45" s="17">
+        <f>'180 Lithium Ion Battery'!G28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AU45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC45" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD45" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs_batteries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8568D2-DFFE-4611-9C9F-FC45601490A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9483726B-D21F-4FFA-86F7-F95618B75BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14508,8 +14508,8 @@
   </sheetPr>
   <dimension ref="A2:BE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT9" sqref="AT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -15570,7 +15570,7 @@
         <v>2030</v>
       </c>
       <c r="R10" s="2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="2">
         <v>0.08</v>
@@ -15710,7 +15710,7 @@
         <v>2030</v>
       </c>
       <c r="R12" s="2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="S12" s="2">
         <v>0.08</v>
@@ -15945,7 +15945,7 @@
         <v>2030</v>
       </c>
       <c r="R15" s="2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="S15" s="2">
         <v>0.08</v>
@@ -16074,7 +16074,7 @@
         <v>2030</v>
       </c>
       <c r="R17" s="2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="S17" s="2">
         <v>0.08</v>
@@ -16312,7 +16312,7 @@
         <v>2030</v>
       </c>
       <c r="R20" s="2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="S20" s="2">
         <v>0.08</v>
@@ -16442,7 +16442,7 @@
         <v>2030</v>
       </c>
       <c r="R22" s="2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="S22" s="2">
         <v>0.08</v>
@@ -16635,7 +16635,7 @@
         <v>2030</v>
       </c>
       <c r="R25" s="2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="S25" s="2">
         <v>0.08</v>
@@ -16725,7 +16725,7 @@
         <v>2030</v>
       </c>
       <c r="R27" s="2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="S27" s="2">
         <v>0.08</v>
@@ -16905,7 +16905,7 @@
         <v>2030</v>
       </c>
       <c r="R30" s="2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="S30" s="2">
         <v>0.08</v>
@@ -17295,8 +17295,8 @@
   </sheetPr>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
